--- a/my-plan2.xlsx
+++ b/my-plan2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
   </bookViews>
   <sheets>
     <sheet name="resources" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="78">
   <si>
     <t>staff</t>
   </si>
@@ -92,9 +92,6 @@
     <t>project</t>
   </si>
   <si>
-    <t>probability.of.occuring</t>
-  </si>
-  <si>
     <t>kickoff</t>
   </si>
   <si>
@@ -254,7 +251,16 @@
     <t>workshare</t>
   </si>
   <si>
-    <t>projects</t>
+    <t>probability</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>comms</t>
+  </si>
+  <si>
+    <t>leadership</t>
   </si>
 </sst>
 </file>
@@ -625,13 +631,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -639,10 +647,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -650,10 +661,13 @@
         <v>40</v>
       </c>
       <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -661,10 +675,13 @@
         <v>100</v>
       </c>
       <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -672,10 +689,13 @@
         <v>100</v>
       </c>
       <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -683,10 +703,13 @@
         <v>100</v>
       </c>
       <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -694,10 +717,13 @@
         <v>100</v>
       </c>
       <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -705,10 +731,13 @@
         <v>100</v>
       </c>
       <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -716,10 +745,13 @@
         <v>100</v>
       </c>
       <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -727,10 +759,13 @@
         <v>100</v>
       </c>
       <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -738,10 +773,13 @@
         <v>100</v>
       </c>
       <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -749,10 +787,13 @@
         <v>100</v>
       </c>
       <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -760,10 +801,13 @@
         <v>100</v>
       </c>
       <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -771,10 +815,13 @@
         <v>100</v>
       </c>
       <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -782,10 +829,13 @@
         <v>100</v>
       </c>
       <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -793,10 +843,13 @@
         <v>100</v>
       </c>
       <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -804,6 +857,9 @@
         <v>100</v>
       </c>
       <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
         <v>4</v>
       </c>
     </row>
@@ -817,27 +873,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
       <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -851,7 +912,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -865,7 +926,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -879,7 +940,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -893,7 +954,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>0.5</v>
@@ -907,7 +968,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -921,7 +982,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -935,7 +996,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -949,7 +1010,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10">
         <v>0.5</v>
@@ -963,7 +1024,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>0.5</v>
@@ -977,7 +1038,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -991,7 +1052,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1005,7 +1066,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1019,7 +1080,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1033,7 +1094,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1061,13 +1122,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1075,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1086,7 +1147,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1097,7 +1158,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1108,7 +1169,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1119,7 +1180,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1130,7 +1191,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -1152,27 +1213,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1191,16 +1252,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>54</v>
-      </c>
-      <c r="D1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1214,7 +1275,7 @@
         <v>43518.458333333336</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1228,7 +1289,7 @@
         <v>43532.458333333336</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1242,7 +1303,7 @@
         <v>43570.458333333336</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1256,7 +1317,7 @@
         <v>43647.458333333336</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1275,15 +1336,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
         <v>59</v>
-      </c>
-      <c r="B1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1">
         <v>43466.458333333336</v>
@@ -1291,7 +1352,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1">
         <v>43493.458333333336</v>
@@ -1299,7 +1360,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1">
         <v>43574.458333333336</v>
@@ -1307,7 +1368,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1">
         <v>43575.458333333336</v>
@@ -1315,7 +1376,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="1">
         <v>43576.458333333336</v>
@@ -1323,7 +1384,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1">
         <v>43577.458333333336</v>
@@ -1331,7 +1392,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1">
         <v>43580.458333333336</v>
@@ -1339,7 +1400,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1">
         <v>43626.458333333336</v>
@@ -1347,7 +1408,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1">
         <v>43682.458333333336</v>
@@ -1355,7 +1416,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="1">
         <v>43745.458333333336</v>
@@ -1363,7 +1424,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1">
         <v>43824.458333333336</v>
@@ -1371,7 +1432,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1">
         <v>43825.458333333336</v>
@@ -1387,11 +1448,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D226"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1401,15 +1468,15 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
         <v>73</v>
-      </c>
-      <c r="D1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1417,7 +1484,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1425,7 +1492,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -1433,7 +1500,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1441,7 +1508,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -1449,7 +1516,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1457,13 +1524,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8">
         <v>100</v>
@@ -1471,7 +1538,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1479,7 +1546,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1487,7 +1554,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1495,7 +1562,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1503,7 +1570,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -1511,7 +1578,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1519,7 +1586,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1527,7 +1594,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -1535,13 +1602,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17">
         <v>100</v>
@@ -1549,7 +1616,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -1557,7 +1624,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -1565,7 +1632,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -1573,7 +1640,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
@@ -1581,7 +1648,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -1589,7 +1656,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -1597,7 +1664,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
@@ -1605,7 +1672,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
@@ -1613,7 +1680,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
@@ -1621,7 +1688,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
@@ -1629,7 +1696,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
@@ -1637,7 +1704,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
@@ -1645,7 +1712,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
@@ -1653,7 +1720,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
@@ -1661,1691 +1728,1823 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B44" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
         <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B53" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B54" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" t="s">
         <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B56" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B59" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B60" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B61" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B66" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B67" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B68" t="s">
         <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B69" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B70" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B71" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B72" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B73" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B74" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B75" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B76" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D78">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
       </c>
       <c r="C79" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79">
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B81" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B82" t="s">
         <v>10</v>
       </c>
       <c r="C82" t="s">
+        <v>49</v>
+      </c>
+      <c r="D82">
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B83" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B84" t="s">
         <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D84">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B85" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B86" t="s">
         <v>14</v>
       </c>
       <c r="C86" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B87" t="s">
         <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D87">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B88" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B89" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B90" t="s">
         <v>18</v>
       </c>
       <c r="C90" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B91" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B92" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B95" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B96" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B97" t="s">
         <v>10</v>
       </c>
       <c r="C97" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D97">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B98" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B99" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B100" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B101" t="s">
         <v>14</v>
       </c>
       <c r="C101" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B102" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B103" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B104" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B105" t="s">
         <v>18</v>
       </c>
       <c r="C105" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B106" t="s">
         <v>19</v>
       </c>
       <c r="C106" t="s">
+        <v>49</v>
+      </c>
+      <c r="D106">
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D110">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B111" t="s">
         <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D111">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B112" t="s">
         <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D112">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B113" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B114" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B115" t="s">
         <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D115">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B116" t="s">
         <v>14</v>
       </c>
       <c r="C116" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D116">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B117" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B118" t="s">
         <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D118">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B119" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B120" t="s">
         <v>18</v>
       </c>
       <c r="C120" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D120">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B121" t="s">
         <v>19</v>
       </c>
       <c r="C121" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D121">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B122" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B125" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B126" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B127" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B128" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B129" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B130" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B131" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B132" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B133" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B134" t="s">
         <v>17</v>
       </c>
       <c r="C134" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D134">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B135" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B136" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B137" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B140" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B141" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B142" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B143" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B144" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B145" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B146" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B147" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B148" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B149" t="s">
         <v>17</v>
       </c>
       <c r="C149" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D149">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B150" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B151" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B152" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B154" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B155" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B156" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B157" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B158" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B159" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B160" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B161" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B162" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B163" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B164" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B165" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B166" t="s">
         <v>19</v>
       </c>
       <c r="C166" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D166">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B167" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B168" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B169" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B170" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B171" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B172" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B173" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B174" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B175" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B176" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B177" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B178" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B179" t="s">
         <v>17</v>
       </c>
       <c r="C179" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D179">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B180" t="s">
         <v>18</v>
       </c>
       <c r="C180" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D180">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B181" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B182" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B184" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B185" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B186" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B187" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B188" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B189" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B190" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B191" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B192" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B193" t="s">
         <v>16</v>
       </c>
       <c r="C193" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D193">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B194" t="s">
         <v>17</v>
       </c>
       <c r="C194" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D194">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B195" t="s">
         <v>18</v>
       </c>
       <c r="C195" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D195">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B196" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B197" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B199" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B200" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B201" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B202" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B203" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B204" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B205" t="s">
         <v>13</v>
       </c>
       <c r="C205" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D205">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B206" t="s">
         <v>14</v>
       </c>
       <c r="C206" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D206">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B207" t="s">
         <v>15</v>
       </c>
       <c r="C207" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D207">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B208" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B209" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B210" t="s">
         <v>18</v>
       </c>
       <c r="C210" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D210">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B211" t="s">
         <v>19</v>
       </c>
       <c r="C211" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D211">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B212" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B213" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B214" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B215" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B216" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B217" t="s">
         <v>10</v>
       </c>
       <c r="C217" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D217">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B218" t="s">
         <v>11</v>
       </c>
       <c r="C218" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D218">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B219" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B220" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B221" t="s">
         <v>14</v>
       </c>
       <c r="C221" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D221">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B222" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B223" t="s">
         <v>16</v>
       </c>
       <c r="C223" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D223">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B224" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B225" t="s">
         <v>18</v>
       </c>
       <c r="C225" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D225">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B226" t="s">
         <v>19</v>
@@ -3361,38 +3560,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>46</v>
-      </c>
-      <c r="G1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3415,7 +3612,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3429,7 +3626,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3440,7 +3637,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3456,35 +3653,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>46</v>
-      </c>
-      <c r="F1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3504,7 +3701,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -3524,7 +3721,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -3544,7 +3741,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3564,7 +3761,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -3584,7 +3781,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -3604,7 +3801,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -3624,7 +3821,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>15</v>
@@ -3644,7 +3841,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -3664,7 +3861,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -3684,7 +3881,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3704,7 +3901,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -3724,7 +3921,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>10</v>
@@ -3744,7 +3941,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -3764,7 +3961,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>15</v>
